--- a/biology/Médecine/Placide_Nicod/Placide_Nicod.xlsx
+++ b/biology/Médecine/Placide_Nicod/Placide_Nicod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Placide Nicod, né à Bottens le 29 janvier 1876 et mort à Évian-les-Bains le 1er août 1953, est un médecin, orthopédiste et enseignant vaudois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille originaire de Franche-Comté, Placide Nicod obtient sa maturité latin-grec à Einsiedeln en 1895, puis sa licence (1901) et son doctorat (1908) en médecine à Lausanne.
 Médecin-adjoint (1903-1905), Placide Nicod devient médecin-directeur de l'Hospice orthopédique de Lausanne de 1905 à 1948. Privat-docent d'orthopédie de 1913 à 1931 à l'Université de Lausanne, Placide Nicod est ensuite professeur extraordinaire d'orthopédie, de chirurgie orthopédique (1931-1947) et de physiothérapie (1935-1947). Placide Nicod est doyen de la Faculté de médecine de 1942 à 1944.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fonds : Famille Nicod (1545 - 2005) [20,85 mètres linéaires].  Cote : CH-000053-1 PP 642. Archives cantonales vaudoises (présentation en ligne).
 « Placide Nicod », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
